--- a/IAT(Formal)/Loop/Practice_ipn _reverse.xlsx
+++ b/IAT(Formal)/Loop/Practice_ipn _reverse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10480"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>Words_ipn</t>
   </si>
@@ -1131,15 +1131,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7083333333333" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="20.7083333333333" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="20.7083333333333" style="2"/>
     <col min="4" max="16384" width="20.7083333333333" style="3"/>
@@ -1153,14 +1153,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:3">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
